--- a/0-docs/entreprenariat/Planning-TODO-LIST-INNOV-PROJECTs.xlsx
+++ b/0-docs/entreprenariat/Planning-TODO-LIST-INNOV-PROJECTs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NOYAU" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>Activité</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Permettre de genérer en lot tous les bulletins et les deposer dans un dossier indiquer par l'utilisateur</t>
+  </si>
+  <si>
+    <t>affichage des boutton sur pages en fonction du rôle utilisateur</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +329,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +903,7 @@
       <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -1453,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1502,7 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="32" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1507,7 +1513,7 @@
       <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1529,7 +1535,7 @@
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1540,7 +1546,7 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1557,9 +1563,11 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <v>43474</v>
-      </c>
-      <c r="B10" s="12"/>
+        <v>43496</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13">

--- a/0-docs/entreprenariat/Planning-TODO-LIST-INNOV-PROJECTs.xlsx
+++ b/0-docs/entreprenariat/Planning-TODO-LIST-INNOV-PROJECTs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOYAU" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,8 +326,8 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,9 +335,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,14 +660,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="2"/>
@@ -768,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,14 +786,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -846,7 +852,7 @@
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -884,7 +890,7 @@
       <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -903,7 +909,7 @@
       <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -976,7 +982,7 @@
       <c r="C13" s="9">
         <v>43498</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>46784</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -998,26 +1004,26 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="25" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="9"/>
@@ -1025,7 +1031,7 @@
       <c r="E16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -1040,7 +1046,7 @@
       <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1058,19 +1064,19 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="29" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1154,14 +1160,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1257,14 +1263,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1357,14 +1363,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1393,10 +1399,10 @@
       <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>43474</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>43481</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1414,10 +1420,10 @@
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>43482</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>43493</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1459,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1471,11 +1477,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1485,13 +1491,13 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1502,7 +1508,7 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1513,7 +1519,7 @@
       <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1535,7 +1541,7 @@
       <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1546,7 +1552,7 @@
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>29</v>
       </c>
     </row>

--- a/0-docs/entreprenariat/Planning-TODO-LIST-INNOV-PROJECTs.xlsx
+++ b/0-docs/entreprenariat/Planning-TODO-LIST-INNOV-PROJECTs.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="NOYAU" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="6" r:id="rId2"/>
-    <sheet name="ERP-SCOOLAIRE" sheetId="2" r:id="rId3"/>
+    <sheet name="ERP-SCOLAIRE" sheetId="2" r:id="rId3"/>
     <sheet name="Gestion Commercial" sheetId="3" r:id="rId4"/>
     <sheet name="RH&amp;PAIE" sheetId="4" r:id="rId5"/>
     <sheet name="centre de santé" sheetId="5" r:id="rId6"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>Activité</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Optimiser le temps de  traitement des notes et la génération des bulletins</t>
   </si>
   <si>
-    <t>NTW &amp;BKD</t>
-  </si>
-  <si>
     <t>Intégrer la gestion multi établissement</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>après l'exportation des données ferme le modal  et signifie l'état de opération à l'utilisateur</t>
   </si>
   <si>
-    <t xml:space="preserve">implementer les MDB : send message </t>
-  </si>
-  <si>
     <t>intégrer l'envoie des SMS</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Prise en main : les etats (html)</t>
   </si>
   <si>
-    <t>bugs à corriger</t>
-  </si>
-  <si>
     <t>encours</t>
   </si>
   <si>
@@ -179,13 +170,109 @@
   </si>
   <si>
     <t>affichage des boutton sur pages en fonction du rôle utilisateur</t>
+  </si>
+  <si>
+    <t>ajout des role sur un utilisateur</t>
+  </si>
+  <si>
+    <t>retoucher la police de l'apllication</t>
+  </si>
+  <si>
+    <t>revoir la police des champ Montant et formatge</t>
+  </si>
+  <si>
+    <t>réduire le nombre d'élts des page liste on ne voir pas les derniere lignes</t>
+  </si>
+  <si>
+    <t>Prise en main Noyau</t>
+  </si>
+  <si>
+    <t>TODO LIST</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t>DO LIST</t>
+  </si>
+  <si>
+    <t>implementer et intégrer les SMS</t>
+  </si>
+  <si>
+    <t>Etats : 1-SITUATION DES PRET A MODIFIER  l'etat: indiquer les mois soldé</t>
+  </si>
+  <si>
+    <t>Etats : 2-Bulletin de paie en anglais</t>
+  </si>
+  <si>
+    <t>1- les elts variable sont pris en compte ? à til éelement règle ces echéance de pret ?:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- se rassurer que le montant de l'acompte sur un mois &lt; au salaire : ok </t>
+  </si>
+  <si>
+    <t>3- se rassurer qu'un employé ne peut avoir plus de 2 pret encours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- gestion des prets échellené sur deux ans </t>
+  </si>
+  <si>
+    <t>5- se rassurer que pendant la fermeture d'une periode les pret ,a compte et autres sont réelement pris en compte dans le bulletin de l'employé</t>
+  </si>
+  <si>
+    <t>historique des opération critique</t>
+  </si>
+  <si>
+    <t>creer un elt variable sur pour une durée donné et pour une population donnée</t>
+  </si>
+  <si>
+    <t>Vous pouvez aussi paramettrer de facon que quuand on change la classe d.un enft sa pension s.ajuste automatiquement sans qu.on soit obligé d.annuler tous ses payements comme on fait maintenant.</t>
+  </si>
+  <si>
+    <t>annuler un pret</t>
+  </si>
+  <si>
+    <t>annuler acompte</t>
+  </si>
+  <si>
+    <t>desactiver un employé  ====&gt;&gt; ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activer un employé =====&gt;&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMULE CNPS == ok </t>
+  </si>
+  <si>
+    <t>MASSE SALARIALE GLOBALE =====&gt;ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETAT DES VIREMENT BANCAIRE====&gt; ok </t>
+  </si>
+  <si>
+    <t>SALAIRE ADDITIONNELLE === ok</t>
+  </si>
+  <si>
+    <t>ACOMPTE SUR SALIRE ====&gt; ok</t>
+  </si>
+  <si>
+    <t>PRET arrondir ===&gt; ok</t>
+  </si>
+  <si>
+    <t>Consulter les remboursement par periode ===&gt;ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier un employé cnps ou pas === ok </t>
+  </si>
+  <si>
+    <t>interdir les paiement anterieure ====&gt;&gt; ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +288,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,14 +328,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -263,11 +352,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,7 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,7 +422,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,16 +453,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,14 +805,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="2"/>
@@ -772,10 +917,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F23"/>
+  <dimension ref="A2:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,14 +931,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -815,332 +960,591 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f>1+0</f>
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9">
-        <v>43472</v>
-      </c>
-      <c r="D4" s="9">
-        <v>43479</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="B4" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f>A11+1</f>
+        <v>2</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <f>A4+1</f>
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10">
-        <v>43476</v>
-      </c>
-      <c r="D5" s="10">
-        <v>43476</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <f t="shared" ref="A6:A23" si="0">A5+1</f>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" ref="A13:A49" si="0">A12+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9">
-        <v>43477</v>
-      </c>
-      <c r="D6" s="9">
-        <v>43477</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <f t="shared" si="0"/>
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <f>A13+1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9">
-        <v>43474</v>
-      </c>
-      <c r="D7" s="9">
-        <v>43481</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="B33" s="7"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="9">
-        <v>43482</v>
-      </c>
-      <c r="D8" s="9">
-        <v>43492</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="B34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="B37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="B38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="9">
-        <v>43498</v>
-      </c>
-      <c r="D13" s="21">
-        <v>46784</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="C39" s="9"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <f t="shared" si="0"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <f>A40+1</f>
         <v>12</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="B43" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="B44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="B45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="25"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="B46" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="B47" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="B48" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <f t="shared" si="0"/>
+      <c r="B49" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <f>A49+1</f>
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="B56" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B43:E43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1160,14 +1564,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="A2" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1194,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1209,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1263,14 +1667,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="A2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1297,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1363,14 +1767,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="A2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1397,19 +1801,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="19">
+        <v>21</v>
+      </c>
+      <c r="C4" s="17">
         <v>43474</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>43481</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1418,12 +1822,12 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="19">
+        <v>22</v>
+      </c>
+      <c r="C5" s="17">
         <v>43482</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>43493</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1463,25 +1867,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J11"/>
+  <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="82.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1491,99 +1895,143 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>43473</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="C4" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>43473</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>43473</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="28" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>43473</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>43473</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>43474</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>43496</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>43474</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>43473</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>43473</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="14" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>43500</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>43473</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>43473</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>43474</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>43496</v>
-      </c>
-      <c r="B10" s="12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>43500</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>43500</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>43474</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>30</v>
+      <c r="C14" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>43501</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
